--- a/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3257</v>
+        <v>4607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002102287643290171</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01025561137352942</v>
+        <v>0.01450627970422883</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,16 +765,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4309</v>
+        <v>4136</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.003779382470701793</v>
+        <v>0.003779382470701792</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01365461391405859</v>
+        <v>0.0131068575914422</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>1860</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5280</v>
+        <v>5414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00293813919149845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007972094580831379</v>
+        <v>0.000779790761784497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008338448786816721</v>
+        <v>0.008551187922764183</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9900</v>
+        <v>9628</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01186430529719307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00297023309027404</v>
+        <v>0.002971047626347456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03117123676258353</v>
+        <v>0.03031336954022458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3436</v>
+        <v>3400</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.003048009641540624</v>
+        <v>0.003048009641540623</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01088958712099898</v>
+        <v>0.01077411703555347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>4730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1834</v>
+        <v>1738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10819</v>
+        <v>10752</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.00747032932589257</v>
+        <v>0.007470329325892569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00289580100455079</v>
+        <v>0.002744610988798891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01708661095708375</v>
+        <v>0.01698141975644143</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>5929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2081</v>
+        <v>2258</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12300</v>
+        <v>12184</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01866838154002004</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006551950319079302</v>
+        <v>0.007110292724549733</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03872553307182484</v>
+        <v>0.03836116499310831</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -904,19 +904,19 @@
         <v>3534</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1357</v>
+        <v>1389</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7117</v>
+        <v>7399</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01119960503156222</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004300242094963457</v>
+        <v>0.004402665244883737</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02255200306823514</v>
+        <v>0.02344623337549288</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -925,19 +925,19 @@
         <v>9464</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5195</v>
+        <v>4973</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16393</v>
+        <v>17086</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01494599905706228</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008204862818250216</v>
+        <v>0.007854380308171446</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02589026053443081</v>
+        <v>0.02698399624363878</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>10456</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5664</v>
+        <v>5549</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18680</v>
+        <v>18973</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03292004894279076</v>
+        <v>0.03292004894279074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01783398564850777</v>
+        <v>0.01747213062712418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05881437072696528</v>
+        <v>0.05973754415020948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -975,19 +975,19 @@
         <v>12477</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8035</v>
+        <v>8195</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18634</v>
+        <v>18632</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03953642448964394</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02546035767914538</v>
+        <v>0.02596779116497889</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05904932546900064</v>
+        <v>0.05904108658497777</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -996,19 +996,19 @@
         <v>22932</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15856</v>
+        <v>16260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31623</v>
+        <v>32869</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03621760114674093</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02504151749097387</v>
+        <v>0.02567959632512447</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04994223452660845</v>
+        <v>0.05191071818482448</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>296788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286826</v>
+        <v>287080</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>304066</v>
+        <v>304098</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.934444976576706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.903078814058068</v>
+        <v>0.9038771708078526</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9573583122323243</v>
+        <v>0.9574610329387255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>503</v>
@@ -1046,19 +1046,19 @@
         <v>297408</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290397</v>
+        <v>290121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>302391</v>
+        <v>302644</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9424365783665516</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9202181448378061</v>
+        <v>0.9193426277951783</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9582263440136156</v>
+        <v>0.9590268856556752</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>811</v>
@@ -1067,19 +1067,19 @@
         <v>594197</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>583296</v>
+        <v>582396</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>604192</v>
+        <v>604024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9384279312788057</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9212126507521641</v>
+        <v>0.9197905176832006</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9542134919920213</v>
+        <v>0.9539484368563701</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7013</v>
+        <v>7174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002688935937743353</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01324101529800295</v>
+        <v>0.01354489015711731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4580</v>
+        <v>4638</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00238207013173589</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008419503761271922</v>
+        <v>0.008525276320595144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1213,19 +1213,19 @@
         <v>2720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9000</v>
+        <v>8279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002533451639305876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0005054632392508588</v>
+        <v>0.000499792109303511</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008382671623626587</v>
+        <v>0.007711209132380333</v>
       </c>
     </row>
     <row r="11">
@@ -1255,19 +1255,19 @@
         <v>3755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1297</v>
+        <v>1354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8032</v>
+        <v>8505</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.006901466867797933</v>
+        <v>0.006901466867797932</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002384828088493665</v>
+        <v>0.00248893539088404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01476483649292912</v>
+        <v>0.01563293606673501</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1276,19 +1276,19 @@
         <v>3754</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8661</v>
+        <v>8564</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.00349686968414773</v>
+        <v>0.003496869684147729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001162052839978542</v>
+        <v>0.001193020258492071</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008066799464907019</v>
+        <v>0.007976523714201295</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>39645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25908</v>
+        <v>27022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57056</v>
+        <v>57231</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07485013221229365</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04891478440316009</v>
+        <v>0.05101759787260463</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1077217268393332</v>
+        <v>0.1080532161646243</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -1326,19 +1326,19 @@
         <v>23863</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17207</v>
+        <v>17091</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33293</v>
+        <v>32990</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04386399485003843</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03163000008508995</v>
+        <v>0.03141603338741182</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06119944967418463</v>
+        <v>0.06064114812757494</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>65</v>
@@ -1347,19 +1347,19 @@
         <v>63508</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48866</v>
+        <v>49507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82972</v>
+        <v>83778</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05914992145326113</v>
+        <v>0.05914992145326112</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04551300959148165</v>
+        <v>0.0461096841053</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07727878985278577</v>
+        <v>0.07802932422728562</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>188169</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>162913</v>
+        <v>161993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>216337</v>
+        <v>218472</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3552631299167127</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3075810117853717</v>
+        <v>0.3058436414807625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4084451144655666</v>
+        <v>0.4124755699821191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -1397,19 +1397,19 @@
         <v>160238</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>141678</v>
+        <v>142135</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>181388</v>
+        <v>179704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2945476773699094</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2604303876314895</v>
+        <v>0.2612711590104073</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3334244045548077</v>
+        <v>0.3303290074994749</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>348</v>
@@ -1418,19 +1418,19 @@
         <v>348407</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>316640</v>
+        <v>313911</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>383209</v>
+        <v>383493</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3244995213336044</v>
+        <v>0.3244995213336043</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2949122044345101</v>
+        <v>0.2923709009041746</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3569135616650718</v>
+        <v>0.3571777862543538</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>300422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>271828</v>
+        <v>269502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>327335</v>
+        <v>328149</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5671978019332503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5132115469695461</v>
+        <v>0.5088216561663443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6180090907765837</v>
+        <v>0.6195460251079098</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>454</v>
@@ -1468,19 +1468,19 @@
         <v>354864</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334233</v>
+        <v>335443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>374795</v>
+        <v>373999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6523047907805183</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6143811795507631</v>
+        <v>0.6166063380415298</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6889420195046662</v>
+        <v>0.6874798657077253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>673</v>
@@ -1489,19 +1489,19 @@
         <v>655285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>621764</v>
+        <v>617636</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>691083</v>
+        <v>692222</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.610320235889681</v>
+        <v>0.6103202358896808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5790997773895636</v>
+        <v>0.5752543001792864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6436622426966104</v>
+        <v>0.6447223954831667</v>
       </c>
     </row>
     <row r="15">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6463</v>
+        <v>6730</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005846067035533652</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02055765576096014</v>
+        <v>0.02140709589164816</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1617,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5605</v>
+        <v>5535</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.00387796431239975</v>
+        <v>0.003877964312399751</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01594476045176422</v>
+        <v>0.01574610213524148</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1635,19 +1635,19 @@
         <v>3201</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>718</v>
+        <v>658</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8823</v>
+        <v>8161</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004807150847223887</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001077876200764225</v>
+        <v>0.0009885500574943276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0132501522703135</v>
+        <v>0.01225667584059373</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>5035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1199</v>
+        <v>1230</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11688</v>
+        <v>12241</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01601720321013941</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003815205996906819</v>
+        <v>0.00391139643193825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03717803630582402</v>
+        <v>0.03893854582171143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1685,19 +1685,19 @@
         <v>1698</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4660</v>
+        <v>4867</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.004829947079091134</v>
+        <v>0.004829947079091135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001384119715503372</v>
+        <v>0.001388731991943396</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01325815054266681</v>
+        <v>0.01384671127090908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1706,19 +1706,19 @@
         <v>6733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2917</v>
+        <v>2793</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14850</v>
+        <v>13254</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01011170785123533</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004380512875501858</v>
+        <v>0.004194369517704156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02230135462463553</v>
+        <v>0.01990415747773517</v>
       </c>
     </row>
     <row r="18">
@@ -1735,19 +1735,19 @@
         <v>15615</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8953</v>
+        <v>9406</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25291</v>
+        <v>24879</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04966920530433405</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02847919623876059</v>
+        <v>0.02992080192493974</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08045029266957351</v>
+        <v>0.07913776183239185</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -1756,19 +1756,19 @@
         <v>16586</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10359</v>
+        <v>10731</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24248</v>
+        <v>25378</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04718545478511488</v>
+        <v>0.0471854547851149</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.029470245059268</v>
+        <v>0.03053060930601668</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06898399264902252</v>
+        <v>0.07219875488315612</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -1777,19 +1777,19 @@
         <v>32200</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22698</v>
+        <v>22860</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>44961</v>
+        <v>43651</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04835809049726206</v>
+        <v>0.04835809049726205</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03408716376966235</v>
+        <v>0.03433144901937202</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06752217756413081</v>
+        <v>0.06555427196288829</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>27488</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18475</v>
+        <v>18127</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38938</v>
+        <v>38592</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08743586105290757</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05876664079378756</v>
+        <v>0.05766144352257223</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1238602540638474</v>
+        <v>0.1227568194393387</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1827,19 +1827,19 @@
         <v>22346</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15812</v>
+        <v>15737</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31097</v>
+        <v>31119</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06357419592463241</v>
+        <v>0.06357419592463243</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04498558606492647</v>
+        <v>0.04477183377978726</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08846978601497804</v>
+        <v>0.08853291157511166</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -1848,19 +1848,19 @@
         <v>49834</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38788</v>
+        <v>37946</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63599</v>
+        <v>64254</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07483983652105947</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05825125329973428</v>
+        <v>0.05698700049658227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09551247630721724</v>
+        <v>0.09649636503806509</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>264398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250927</v>
+        <v>249473</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277005</v>
+        <v>275434</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8410316633970855</v>
+        <v>0.8410316633970852</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7981806261835704</v>
+        <v>0.7935559364019252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8811309993957728</v>
+        <v>0.8761349130677757</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>465</v>
@@ -1898,19 +1898,19 @@
         <v>309506</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>298035</v>
+        <v>297920</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318895</v>
+        <v>318846</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8805324378987617</v>
+        <v>0.8805324378987619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8478985549050834</v>
+        <v>0.8475693743146674</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9072440972992684</v>
+        <v>0.9071049332012294</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>773</v>
@@ -1919,19 +1919,19 @@
         <v>573904</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>555894</v>
+        <v>555071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>588606</v>
+        <v>588842</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8618832142832192</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8348356121921342</v>
+        <v>0.8336008786957673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8839619935955583</v>
+        <v>0.8843174714783746</v>
       </c>
     </row>
     <row r="21">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4839</v>
+        <v>5418</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003191360009599721</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01157652694620236</v>
+        <v>0.01296078530558243</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2060,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4123</v>
+        <v>5075</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.001724976356838701</v>
+        <v>0.0017249763568387</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005330893850380548</v>
+        <v>0.006562599711648478</v>
       </c>
     </row>
     <row r="23">
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2234</v>
+        <v>2387</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.001124712933880288</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.005345308412158647</v>
+        <v>0.005710011571990761</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2914</v>
+        <v>2424</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.0006079236480178633</v>
+        <v>0.0006079236480178632</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.003768447915777161</v>
+        <v>0.003134248403584253</v>
       </c>
     </row>
     <row r="24">
@@ -2149,19 +2149,19 @@
         <v>18998</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9292</v>
+        <v>8465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35535</v>
+        <v>34955</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05346533359228734</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02615081068146835</v>
+        <v>0.02382265279040529</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.100003920254082</v>
+        <v>0.09837043449865571</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2170,19 +2170,19 @@
         <v>8544</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3641</v>
+        <v>3635</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23755</v>
+        <v>22350</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0204391612362543</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008710784956974997</v>
+        <v>0.008695568175156741</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05683050200983417</v>
+        <v>0.05346876145735784</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -2191,19 +2191,19 @@
         <v>27542</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14846</v>
+        <v>15795</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45613</v>
+        <v>46622</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03561420858612351</v>
+        <v>0.0356142085861235</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01919759648551243</v>
+        <v>0.02042490342607238</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05898235047980693</v>
+        <v>0.06028736722035665</v>
       </c>
     </row>
     <row r="25">
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4633</v>
+        <v>5001</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00363187468048814</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01303718005793082</v>
+        <v>0.01407440111526861</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2241,19 +2241,19 @@
         <v>4962</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2428</v>
+        <v>1925</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10159</v>
+        <v>9547</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01187112856950467</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00580805259011212</v>
+        <v>0.004604905402853395</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0243027610569852</v>
+        <v>0.0228398590176603</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2262,19 +2262,19 @@
         <v>6253</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3182</v>
+        <v>3453</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11578</v>
+        <v>11572</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.008085310868756808</v>
+        <v>0.008085310868756806</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004114935256191923</v>
+        <v>0.00446482983041091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01497215637628737</v>
+        <v>0.01496391716833849</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>335047</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>318070</v>
+        <v>318782</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>344952</v>
+        <v>345358</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9429027917272246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8951245086676877</v>
+        <v>0.8971277031661571</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9707758237473871</v>
+        <v>0.9719194633734766</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>571</v>
@@ -2312,19 +2312,19 @@
         <v>402689</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>388751</v>
+        <v>387234</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>408620</v>
+        <v>408850</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9633736372507611</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9300291860544214</v>
+        <v>0.926400124600092</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9775627050304011</v>
+        <v>0.9781116678659452</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>839</v>
@@ -2333,19 +2333,19 @@
         <v>737737</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>721470</v>
+        <v>719395</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>751423</v>
+        <v>750376</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9539675805402633</v>
+        <v>0.9539675805402631</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9329336498954717</v>
+        <v>0.9302503090005492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9716661598175899</v>
+        <v>0.9703115696756076</v>
       </c>
     </row>
     <row r="27">
@@ -2484,19 +2484,19 @@
         <v>4096</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1293</v>
+        <v>1520</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8009</v>
+        <v>8407</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02015455176496343</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00636111999512575</v>
+        <v>0.007478563107845999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03941138807075759</v>
+        <v>0.04136617499464252</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7675</v>
+        <v>6136</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006801785391277463</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03390345100208827</v>
+        <v>0.02710322127444755</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2526,19 +2526,19 @@
         <v>5636</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2478</v>
+        <v>2622</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10857</v>
+        <v>11376</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.01311817280257732</v>
+        <v>0.01311817280257731</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005768367814743015</v>
+        <v>0.00610352594129165</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02527182228354821</v>
+        <v>0.02648044777071188</v>
       </c>
     </row>
     <row r="30">
@@ -2555,19 +2555,19 @@
         <v>10348</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5643</v>
+        <v>5067</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18464</v>
+        <v>17507</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05091996319894416</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02776548403329938</v>
+        <v>0.02493267515676476</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09085606445519506</v>
+        <v>0.08614443894226952</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -2576,19 +2576,19 @@
         <v>4917</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2456</v>
+        <v>2473</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9050</v>
+        <v>8926</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02171792647796491</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0108468525811296</v>
+        <v>0.01092456944489325</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03997694769014964</v>
+        <v>0.03942856827848215</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>23</v>
@@ -2597,19 +2597,19 @@
         <v>15265</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9505</v>
+        <v>9855</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>24343</v>
+        <v>23844</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03553164656912176</v>
+        <v>0.03553164656912175</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02212450727663638</v>
+        <v>0.02293980746664745</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05666240965750148</v>
+        <v>0.05550024705877143</v>
       </c>
     </row>
     <row r="31">
@@ -2626,19 +2626,19 @@
         <v>121663</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>109878</v>
+        <v>110235</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>134208</v>
+        <v>134137</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5986568263160992</v>
+        <v>0.5986568263160993</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5406687548377734</v>
+        <v>0.542428089833095</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.660389905751854</v>
+        <v>0.6600403193533401</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>364</v>
@@ -2647,19 +2647,19 @@
         <v>167232</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>157265</v>
+        <v>156136</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>176574</v>
+        <v>176042</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7386836365434084</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6946565859148894</v>
+        <v>0.689671848917574</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7799487562358232</v>
+        <v>0.7775980198263647</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>535</v>
@@ -2668,19 +2668,19 @@
         <v>288895</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>271289</v>
+        <v>272524</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>305482</v>
+        <v>303989</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6724454087026783</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6314656585917268</v>
+        <v>0.6343397936346418</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7110558571535017</v>
+        <v>0.7075789280063319</v>
       </c>
     </row>
     <row r="32">
@@ -2697,19 +2697,19 @@
         <v>67119</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55230</v>
+        <v>55232</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>78768</v>
+        <v>78653</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3302686587199933</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2717683045459209</v>
+        <v>0.2717747973966853</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3875881361784672</v>
+        <v>0.3870205907442665</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>114</v>
@@ -2718,19 +2718,19 @@
         <v>52703</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43450</v>
+        <v>44438</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62950</v>
+        <v>63563</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2327966515873492</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1919246138145095</v>
+        <v>0.1962881898724725</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2780572956794732</v>
+        <v>0.280766991648061</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>201</v>
@@ -2739,19 +2739,19 @@
         <v>119823</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>104356</v>
+        <v>105015</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>136669</v>
+        <v>135456</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2789047719256226</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2429052773276927</v>
+        <v>0.244438753490363</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3181168804723432</v>
+        <v>0.3152938563709023</v>
       </c>
     </row>
     <row r="33">
@@ -2843,19 +2843,19 @@
         <v>3952</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1482</v>
+        <v>852</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10741</v>
+        <v>10236</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01460030094787808</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005474028505381185</v>
+        <v>0.00314605548306895</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03967783303696409</v>
+        <v>0.03781161047655753</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3427</v>
+        <v>3407</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002331043486039717</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01306505057721983</v>
+        <v>0.01298797524753969</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -2885,19 +2885,19 @@
         <v>4564</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1638</v>
+        <v>1624</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10429</v>
+        <v>10547</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008562390728233994</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003072451768371615</v>
+        <v>0.003045966293319654</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01956601763224664</v>
+        <v>0.01978799351166197</v>
       </c>
     </row>
     <row r="35">
@@ -2914,19 +2914,19 @@
         <v>8029</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3676</v>
+        <v>3987</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>15207</v>
+        <v>14985</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02965936564775008</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01357802731481667</v>
+        <v>0.01472683810717758</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05617379968998851</v>
+        <v>0.05535607012703927</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2938,16 +2938,16 @@
         <v>943</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10806</v>
+        <v>10485</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01410896619850548</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003594719483432005</v>
+        <v>0.003595473359077265</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04119655457323221</v>
+        <v>0.03997345972513391</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -2956,19 +2956,19 @@
         <v>11730</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6481</v>
+        <v>6641</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>19812</v>
+        <v>20789</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02200674966457603</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01216000273295809</v>
+        <v>0.01245865994784104</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03717004313856673</v>
+        <v>0.03900244552634049</v>
       </c>
     </row>
     <row r="36">
@@ -2985,19 +2985,19 @@
         <v>23724</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15723</v>
+        <v>16049</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>33741</v>
+        <v>33728</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.08763757773826696</v>
+        <v>0.08763757773826693</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05808016898509862</v>
+        <v>0.05928462220496233</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1246409969268681</v>
+        <v>0.1245927518797106</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>23</v>
@@ -3006,19 +3006,19 @@
         <v>13323</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8434</v>
+        <v>8193</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>21393</v>
+        <v>20126</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05079059306413512</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0321534448413303</v>
+        <v>0.03123556751302708</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08155679717635612</v>
+        <v>0.07672767384927193</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>49</v>
@@ -3027,19 +3027,19 @@
         <v>37047</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27991</v>
+        <v>26942</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>49842</v>
+        <v>49178</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.06950455004535271</v>
+        <v>0.06950455004535272</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0525140762595481</v>
+        <v>0.05054647068993392</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09350965660487814</v>
+        <v>0.09226448243370611</v>
       </c>
     </row>
     <row r="37">
@@ -3056,19 +3056,19 @@
         <v>42280</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>31630</v>
+        <v>32139</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>54135</v>
+        <v>53544</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1561824728491832</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1168429687761304</v>
+        <v>0.1187229038418057</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1999754057352425</v>
+        <v>0.1977934694276738</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>57</v>
@@ -3077,19 +3077,19 @@
         <v>34031</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>25757</v>
+        <v>26090</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>43790</v>
+        <v>43378</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1297372797092198</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0981935410541685</v>
+        <v>0.09946518236081014</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.166945530708869</v>
+        <v>0.165374422936255</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>109</v>
@@ -3098,19 +3098,19 @@
         <v>76310</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>61986</v>
+        <v>62889</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>90516</v>
+        <v>93001</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1431683436390914</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1162939404009188</v>
+        <v>0.1179873284263803</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1698207047138625</v>
+        <v>0.1744820015257478</v>
       </c>
     </row>
     <row r="38">
@@ -3127,19 +3127,19 @@
         <v>192722</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>177704</v>
+        <v>178396</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>205686</v>
+        <v>204827</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7119202828169217</v>
+        <v>0.7119202828169218</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6564446376423521</v>
+        <v>0.6590004276427898</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7598107237829806</v>
+        <v>0.7566379954491487</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>373</v>
@@ -3148,19 +3148,19 @@
         <v>210639</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>198625</v>
+        <v>198627</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>220815</v>
+        <v>219459</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8030321175420999</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7572312648751955</v>
+        <v>0.7572389211072461</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8418297170199114</v>
+        <v>0.8366585382945425</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>653</v>
@@ -3169,19 +3169,19 @@
         <v>403360</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>387225</v>
+        <v>383150</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>420343</v>
+        <v>420886</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7567579659227457</v>
+        <v>0.7567579659227458</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7264863492089164</v>
+        <v>0.7188402809701597</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7886203090314624</v>
+        <v>0.7896381626434402</v>
       </c>
     </row>
     <row r="39">
@@ -3273,19 +3273,19 @@
         <v>3498</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10498</v>
+        <v>9242</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004920090263279758</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001331443414583056</v>
+        <v>0.001314871599258615</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01476782959800767</v>
+        <v>0.0130010451855455</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3294,19 +3294,19 @@
         <v>7234</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2547</v>
+        <v>2791</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15752</v>
+        <v>16794</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.009459842208205871</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003330633570613895</v>
+        <v>0.003650440237016959</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02059990121283104</v>
+        <v>0.02196276920872433</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -3315,19 +3315,19 @@
         <v>10731</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4823</v>
+        <v>4758</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20567</v>
+        <v>20112</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007272701852278792</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003268862114485769</v>
+        <v>0.003224273282131211</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01393832921298614</v>
+        <v>0.0136299585126763</v>
       </c>
     </row>
     <row r="41">
@@ -3344,19 +3344,19 @@
         <v>11428</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5408</v>
+        <v>5272</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20673</v>
+        <v>22282</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01607547776033435</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.007606837979921151</v>
+        <v>0.007416690155716511</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02908129350978517</v>
+        <v>0.0313448071299116</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3365,19 +3365,19 @@
         <v>5123</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2346</v>
+        <v>2647</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10455</v>
+        <v>10556</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.006699161780006344</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003067388003140361</v>
+        <v>0.003462139421085539</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01367205989241069</v>
+        <v>0.01380483892601863</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>16</v>
@@ -3386,19 +3386,19 @@
         <v>16550</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9476</v>
+        <v>9902</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>27671</v>
+        <v>27964</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01121643922584114</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006422303110787677</v>
+        <v>0.006710555487852734</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01875284889643431</v>
+        <v>0.01895151631731259</v>
       </c>
     </row>
     <row r="42">
@@ -3415,19 +3415,19 @@
         <v>46185</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>32881</v>
+        <v>32139</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>65944</v>
+        <v>65647</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06496907325539002</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04625457116741739</v>
+        <v>0.04520976767643351</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09276347700800813</v>
+        <v>0.09234591424550924</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>70</v>
@@ -3436,19 +3436,19 @@
         <v>60448</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>47361</v>
+        <v>47279</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>77044</v>
+        <v>76472</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.07905150024582004</v>
+        <v>0.07905150024582001</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0619371119083225</v>
+        <v>0.06182986708412387</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1007562487148672</v>
+        <v>0.1000072448778311</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>105</v>
@@ -3457,19 +3457,19 @@
         <v>106633</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>86475</v>
+        <v>87697</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>131230</v>
+        <v>128687</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0722669347554984</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0586053822774714</v>
+        <v>0.05943363370467252</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08893695310203632</v>
+        <v>0.08721333119708413</v>
       </c>
     </row>
     <row r="43">
@@ -3486,19 +3486,19 @@
         <v>189780</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>165073</v>
+        <v>164521</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>218660</v>
+        <v>221216</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.2669653224576049</v>
+        <v>0.266965322457605</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2322102262056313</v>
+        <v>0.2314333349073517</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3075905464386182</v>
+        <v>0.3111863961791359</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>221</v>
@@ -3507,19 +3507,19 @@
         <v>174115</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>153842</v>
+        <v>153167</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>198441</v>
+        <v>195512</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2277016997768495</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2011896002409155</v>
+        <v>0.2003067428198688</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2595142519957678</v>
+        <v>0.2556843932706706</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>383</v>
@@ -3528,19 +3528,19 @@
         <v>363895</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>333838</v>
+        <v>330317</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>400969</v>
+        <v>400246</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.2466179433793118</v>
+        <v>0.2466179433793117</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2262479572144722</v>
+        <v>0.2238614230323057</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2717436938907868</v>
+        <v>0.2712537255747921</v>
       </c>
     </row>
     <row r="44">
@@ -3557,19 +3557,19 @@
         <v>459989</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>432183</v>
+        <v>426065</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>490021</v>
+        <v>486785</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6470700362633909</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6079561587763993</v>
+        <v>0.5993496526085563</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6893171898201288</v>
+        <v>0.684765523564962</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>646</v>
@@ -3578,19 +3578,19 @@
         <v>517743</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>492360</v>
+        <v>495182</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>541809</v>
+        <v>543687</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.6770877959891182</v>
+        <v>0.6770877959891183</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6438925608139384</v>
+        <v>0.6475823584508775</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7085607398493944</v>
+        <v>0.7110165164443557</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1028</v>
@@ -3599,19 +3599,19 @@
         <v>977732</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>932564</v>
+        <v>938269</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1010106</v>
+        <v>1015663</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6626259807870699</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6320150520086409</v>
+        <v>0.6358816803055741</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6845667383136378</v>
+        <v>0.6883328580922286</v>
       </c>
     </row>
     <row r="45">
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>3484</v>
+        <v>3493</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.0008282778170856463</v>
+        <v>0.0008282778170856464</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.004194541776306933</v>
+        <v>0.004204841162431503</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>3919</v>
+        <v>3445</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.0004228717289451923</v>
+        <v>0.0004228717289451924</v>
       </c>
       <c r="V46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.002408725003801395</v>
+        <v>0.002117572953511098</v>
       </c>
     </row>
     <row r="47">
@@ -3766,19 +3766,19 @@
         <v>10522</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5587</v>
+        <v>5476</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>18332</v>
+        <v>18455</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.01321392509779905</v>
+        <v>0.01321392509779904</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.007016578604325451</v>
+        <v>0.006877259359456014</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02302098594653571</v>
+        <v>0.0231756746218603</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -3787,19 +3787,19 @@
         <v>4278</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9365</v>
+        <v>9135</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.005149837221027201</v>
+        <v>0.005149837221027202</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001913471584994838</v>
+        <v>0.001904945746426897</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01127524639773447</v>
+        <v>0.01099809920179615</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>17</v>
@@ -3808,19 +3808,19 @@
         <v>14800</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>9270</v>
+        <v>8667</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>24568</v>
+        <v>23549</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.009096858683036106</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.005697631255745252</v>
+        <v>0.005327121202824426</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0151007577899789</v>
+        <v>0.01447489580826316</v>
       </c>
     </row>
     <row r="48">
@@ -3837,19 +3837,19 @@
         <v>49745</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>36162</v>
+        <v>34583</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>66476</v>
+        <v>64917</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.06247004740860519</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04541235954472234</v>
+        <v>0.04342994191066014</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.08348113612618004</v>
+        <v>0.08152254333520073</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>48</v>
@@ -3858,19 +3858,19 @@
         <v>37076</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>26440</v>
+        <v>27826</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>49287</v>
+        <v>48703</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.04463715682858515</v>
+        <v>0.04463715682858516</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03183263946361831</v>
+        <v>0.03350072190906205</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.05933863314387448</v>
+        <v>0.0586356381628957</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>95</v>
@@ -3879,19 +3879,19 @@
         <v>86821</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>69749</v>
+        <v>71753</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>107330</v>
+        <v>108153</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.05336558376596276</v>
+        <v>0.05336558376596277</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.04287224521983461</v>
+        <v>0.0441040140152602</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.0659714283064452</v>
+        <v>0.06647736963890827</v>
       </c>
     </row>
     <row r="49">
@@ -3908,19 +3908,19 @@
         <v>191062</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>165323</v>
+        <v>165902</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>219883</v>
+        <v>219248</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.239936800626148</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2076133794274287</v>
+        <v>0.2083409048719729</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2761293664616271</v>
+        <v>0.2753320299737104</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>214</v>
@@ -3929,19 +3929,19 @@
         <v>169174</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>150577</v>
+        <v>147271</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>192808</v>
+        <v>191214</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2036750684503057</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1812854707768524</v>
+        <v>0.1773046976990515</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2321283842851393</v>
+        <v>0.2302090169139102</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>385</v>
@@ -3950,19 +3950,19 @@
         <v>360237</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>329297</v>
+        <v>325777</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>393968</v>
+        <v>392303</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.221423614514633</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2024064094953473</v>
+        <v>0.2002424587003998</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2421571926307879</v>
+        <v>0.2411337420173752</v>
       </c>
     </row>
     <row r="50">
@@ -3979,19 +3979,19 @@
         <v>544973</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>515570</v>
+        <v>515756</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>574546</v>
+        <v>571124</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.6843792268674478</v>
+        <v>0.6843792268674477</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.647454139579883</v>
+        <v>0.6476879715545736</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7215172999651881</v>
+        <v>0.7172191723552762</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>792</v>
@@ -4000,19 +4000,19 @@
         <v>619393</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>595279</v>
+        <v>597025</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>641775</v>
+        <v>641655</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7457096596829963</v>
+        <v>0.7457096596829964</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7166776316737982</v>
+        <v>0.7187803835205037</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7726555368878179</v>
+        <v>0.7725118182872794</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1324</v>
@@ -4021,19 +4021,19 @@
         <v>1164366</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1128268</v>
+        <v>1128703</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1199440</v>
+        <v>1202510</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.7156910713074228</v>
+        <v>0.715691071307423</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6935034946518505</v>
+        <v>0.6937706418048477</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7372501779168982</v>
+        <v>0.7391371910961656</v>
       </c>
     </row>
     <row r="51">
@@ -4125,19 +4125,19 @@
         <v>11380</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5642</v>
+        <v>5590</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>20346</v>
+        <v>20065</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.003253134929890057</v>
+        <v>0.003253134929890056</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.001613000546379525</v>
+        <v>0.001598145267696616</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.005816307782538762</v>
+        <v>0.005735936321409812</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>16</v>
@@ -4146,19 +4146,19 @@
         <v>13719</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>7779</v>
+        <v>8040</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>24129</v>
+        <v>22836</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.003694706333015557</v>
+        <v>0.003694706333015558</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.002095064826375334</v>
+        <v>0.002165281776242832</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.006498537086019998</v>
+        <v>0.006150276903886477</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>27</v>
@@ -4167,19 +4167,19 @@
         <v>25098</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>16626</v>
+        <v>17038</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>38076</v>
+        <v>37872</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.003480502051125465</v>
+        <v>0.003480502051125466</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.00230561828956806</v>
+        <v>0.002362776990206755</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.005280159642264417</v>
+        <v>0.005251929927119339</v>
       </c>
     </row>
     <row r="53">
@@ -4196,19 +4196,19 @@
         <v>42879</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>31859</v>
+        <v>30868</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>58698</v>
+        <v>58719</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.0122576877769926</v>
+        <v>0.01225768777699259</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.009107435007380824</v>
+        <v>0.008824287495994723</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01678008424827529</v>
+        <v>0.01678612748118945</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>30</v>
@@ -4217,19 +4217,19 @@
         <v>21525</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>14216</v>
+        <v>14828</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>30729</v>
+        <v>32372</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.005797121923980346</v>
+        <v>0.005797121923980348</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.003828614015953337</v>
+        <v>0.003993530089039164</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.008275813523979195</v>
+        <v>0.008718567907504804</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>73</v>
@@ -4238,19 +4238,19 @@
         <v>64404</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>50298</v>
+        <v>49977</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>81915</v>
+        <v>81793</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.008931113073209773</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.006975071912823256</v>
+        <v>0.00693047149396847</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01135944256340705</v>
+        <v>0.01134258432815652</v>
       </c>
     </row>
     <row r="54">
@@ -4267,19 +4267,19 @@
         <v>210190</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>180919</v>
+        <v>178992</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>244818</v>
+        <v>245112</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.06008695420431312</v>
+        <v>0.06008695420431311</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.05171925346480091</v>
+        <v>0.05116841118420952</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.06998605696575243</v>
+        <v>0.07007027066594951</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>227</v>
@@ -4288,19 +4288,19 @@
         <v>168289</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>146107</v>
+        <v>146053</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>194463</v>
+        <v>194016</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.04532366815887302</v>
+        <v>0.04532366815887303</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.0393496809929175</v>
+        <v>0.03933495303246314</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.05237280507534764</v>
+        <v>0.05225250103048678</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>410</v>
@@ -4309,19 +4309,19 @@
         <v>378479</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>339937</v>
+        <v>339457</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>418964</v>
+        <v>420783</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.05248527115969671</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.04714044654971473</v>
+        <v>0.04707398872678421</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.05809948513475208</v>
+        <v>0.05835179014323693</v>
       </c>
     </row>
     <row r="55">
@@ -4338,19 +4338,19 @@
         <v>772187</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>720520</v>
+        <v>719087</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>827144</v>
+        <v>829621</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.2207451285071791</v>
+        <v>0.220745128507179</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2059748938472676</v>
+        <v>0.2055653407246993</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2364555189442946</v>
+        <v>0.2371638546335566</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1138</v>
@@ -4359,19 +4359,19 @@
         <v>744575</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>703658</v>
+        <v>704198</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>789996</v>
+        <v>787601</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2005290436353799</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1895093677194469</v>
+        <v>0.1896548113352848</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2127618572587685</v>
+        <v>0.2121170109302479</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1867</v>
@@ -4380,19 +4380,19 @@
         <v>1516762</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1449101</v>
+        <v>1454244</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1585907</v>
+        <v>1586074</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.2103357745784209</v>
+        <v>0.210335774578421</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2009528734465256</v>
+        <v>0.2016661211521536</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2199243637565376</v>
+        <v>0.2199476123908442</v>
       </c>
     </row>
     <row r="56">
@@ -4409,19 +4409,19 @@
         <v>2461459</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2402581</v>
+        <v>2401448</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2528074</v>
+        <v>2517065</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.7036570945816252</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.686825833710474</v>
+        <v>0.6865019216666511</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7227003506496534</v>
+        <v>0.7195534144630547</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>3918</v>
@@ -4430,19 +4430,19 @@
         <v>2764944</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2712618</v>
+        <v>2718694</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>2811602</v>
+        <v>2808562</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.7446554599487509</v>
+        <v>0.7446554599487514</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.7305629795433276</v>
+        <v>0.7321992480277306</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.7572213299613186</v>
+        <v>0.7564024256635749</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>6302</v>
@@ -4451,19 +4451,19 @@
         <v>5226403</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5152246</v>
+        <v>5148796</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>5300539</v>
+        <v>5295427</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.724767339137547</v>
+        <v>0.7247673391375472</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.7144836295068384</v>
+        <v>0.7140052862934174</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.7350480806170421</v>
+        <v>0.7343391490953848</v>
       </c>
     </row>
     <row r="57">
